--- a/BOM_main_board.xlsx
+++ b/BOM_main_board.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f35f3248d5cbe7b/Dokumenty/GitHub/escape_room_hw_v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{D4C60ABF-EE20-4D71-B491-89313FCB68B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD8D2DE0-5F00-4323-82E4-64C578F0828F}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{D4C60ABF-EE20-4D71-B491-89313FCB68B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{961ED6BC-C363-44DB-9991-A5573629EE22}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,27 +18,16 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BOM_main_board!$A$1:$H$47</definedName>
     <definedName name="Print_Titles" localSheetId="0">BOM_main_board!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="142">
   <si>
     <t>Comment</t>
   </si>
@@ -458,19 +447,25 @@
   </si>
   <si>
     <t>XTAL_4PIN</t>
+  </si>
+  <si>
+    <t>na Ile szt przygotowane</t>
+  </si>
+  <si>
+    <t>LP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Tahoma"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,14 +487,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -536,17 +525,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -563,15 +541,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -589,10 +564,18 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -630,7 +613,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -736,7 +719,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -886,958 +869,1212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F47"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="Z42" sqref="Z42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="20.140625" customWidth="1"/>
+    <col min="2" max="7" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="H1" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G4" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="4">
+        <v>12</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="B16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>27</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="1">
+        <v>4</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="4">
+        <v>2</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="4">
+        <v>3</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="1">
+        <v>3</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="1">
+        <v>13</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>36</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" s="1">
+        <v>3</v>
+      </c>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" s="1">
+        <v>4</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="B37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F31" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F32" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F33" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F34" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F35" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F36" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F37" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="3" t="s">
+      <c r="B38" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F38" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="6" t="s">
+      <c r="F38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="1">
+        <v>7</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F39" s="2">
+      <c r="G39" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="6" t="s">
+      <c r="H39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F40" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="6" t="s">
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+      <c r="H40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F41" s="2">
+      <c r="G41" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="3" t="s">
-        <v>118</v>
+      <c r="H41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>12</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F42" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F43" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="6" t="s">
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F44" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="7" t="s">
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F45" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="6" t="s">
+      <c r="G45" s="4">
+        <v>1</v>
+      </c>
+      <c r="H45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F46" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="6" t="s">
+      <c r="G46" s="4">
+        <v>1</v>
+      </c>
+      <c r="H46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F47" s="2">
+      <c r="G47" s="4">
+        <v>1</v>
+      </c>
+      <c r="H47" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H47" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="7">
+      <filters blank="1"/>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H42">
+      <sortCondition ref="E1:E47"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1848,7 +2085,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1860,7 +2097,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
